--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="969">
   <si>
     <t>id|行号</t>
   </si>
@@ -3656,14 +3656,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>福袋--深海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--福袋（深海探险产出）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>福袋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3684,10 +3676,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_gdn_xnfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>快</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3710,9 +3698,6 @@
   <si>
     <t>过大年--乐字符</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7</t>
   </si>
   <si>
     <t>万能字</t>
@@ -4287,11 +4272,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q304"/>
+  <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8649,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J131" s="35" t="s">
         <v>941</v>
@@ -14400,7 +14385,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="33" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D299" s="34">
         <v>-1</v>
@@ -14419,7 +14404,7 @@
         <v>308</v>
       </c>
       <c r="J299" s="35" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14430,7 +14415,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D300" s="34">
         <v>-1</v>
@@ -14449,7 +14434,7 @@
         <v>312</v>
       </c>
       <c r="J300" s="35" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14460,7 +14445,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="33" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D301" s="34">
         <v>-1</v>
@@ -14476,10 +14461,10 @@
         <v>1</v>
       </c>
       <c r="I301" s="35" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J301" s="35" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14490,7 +14475,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="33" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D302" s="34">
         <v>-1</v>
@@ -14506,21 +14491,18 @@
         <v>1</v>
       </c>
       <c r="I302" s="35" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J302" s="35" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A303" s="2">
-        <v>302</v>
-      </c>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B303" s="11">
         <v>302</v>
       </c>
-      <c r="C303" s="35" t="s">
-        <v>962</v>
+      <c r="C303" s="33" t="s">
+        <v>968</v>
       </c>
       <c r="D303" s="34">
         <v>-1</v>
@@ -14528,9 +14510,7 @@
       <c r="E303" s="34">
         <v>1</v>
       </c>
-      <c r="F303" s="35" t="s">
-        <v>969</v>
-      </c>
+      <c r="F303" s="34"/>
       <c r="G303" s="34">
         <v>0</v>
       </c>
@@ -14538,37 +14518,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="35" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="J303" s="35" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B304" s="2">
-        <v>303</v>
-      </c>
-      <c r="C304" s="33" t="s">
-        <v>972</v>
-      </c>
-      <c r="D304" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E304" s="34">
-        <v>1</v>
-      </c>
-      <c r="F304" s="34"/>
-      <c r="G304" s="34">
-        <v>0</v>
-      </c>
-      <c r="H304" s="34">
-        <v>1</v>
-      </c>
-      <c r="I304" s="35" t="s">
-        <v>970</v>
-      </c>
-      <c r="J304" s="35" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="974">
   <si>
     <t>id|行号</t>
   </si>
@@ -3710,6 +3710,23 @@
   <si>
     <t>prop_gdn_wn</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnhl_icon_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnhl_icon_n</t>
+  </si>
+  <si>
+    <t>xnhl_icon_k</t>
+  </si>
+  <si>
+    <t>xnhl_icon_l</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hslb_icon_wnz</t>
   </si>
 </sst>
 </file>
@@ -4276,7 +4293,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F312" sqref="F312"/>
+      <selection pane="bottomLeft" activeCell="G297" sqref="G297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14393,7 +14410,9 @@
       <c r="E299" s="34">
         <v>1</v>
       </c>
-      <c r="F299" s="35"/>
+      <c r="F299" s="35" t="s">
+        <v>969</v>
+      </c>
       <c r="G299" s="34">
         <v>0</v>
       </c>
@@ -14423,7 +14442,9 @@
       <c r="E300" s="34">
         <v>1</v>
       </c>
-      <c r="F300" s="35"/>
+      <c r="F300" s="35" t="s">
+        <v>970</v>
+      </c>
       <c r="G300" s="34">
         <v>0</v>
       </c>
@@ -14453,7 +14474,9 @@
       <c r="E301" s="34">
         <v>1</v>
       </c>
-      <c r="F301" s="35"/>
+      <c r="F301" s="35" t="s">
+        <v>971</v>
+      </c>
       <c r="G301" s="34">
         <v>0</v>
       </c>
@@ -14483,7 +14506,9 @@
       <c r="E302" s="34">
         <v>1</v>
       </c>
-      <c r="F302" s="35"/>
+      <c r="F302" s="35" t="s">
+        <v>972</v>
+      </c>
       <c r="G302" s="34">
         <v>0</v>
       </c>
@@ -14510,7 +14535,9 @@
       <c r="E303" s="34">
         <v>1</v>
       </c>
-      <c r="F303" s="34"/>
+      <c r="F303" s="34" t="s">
+        <v>973</v>
+      </c>
       <c r="G303" s="34">
         <v>0</v>
       </c>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="971">
   <si>
     <t>id|行号</t>
   </si>
@@ -3656,7 +3656,67 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>爆竹</t>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gdn_xnfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋--正常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gdn_xnfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋--深海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--福袋（深海探险产出）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnfd_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnfd_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3735,7 +3795,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3775,18 +3835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3845,7 +3893,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,37 +3984,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4247,11 +4280,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5144,143 +5177,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="32">
         <v>29</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="34">
-        <v>1</v>
-      </c>
-      <c r="F31" s="36" t="s">
+      <c r="D31" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="34">
-        <v>1</v>
-      </c>
-      <c r="H31" s="34">
+      <c r="G31" s="29">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29">
         <v>17</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="32">
         <v>30</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="34">
-        <v>1</v>
-      </c>
-      <c r="F32" s="34" t="s">
+      <c r="D32" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="34">
-        <v>1</v>
-      </c>
-      <c r="H32" s="34">
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29">
         <v>18</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="32">
         <v>31</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="34">
-        <v>1</v>
-      </c>
-      <c r="F33" s="34" t="s">
+      <c r="D33" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="G33" s="34">
-        <v>1</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29">
         <v>19</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="32">
         <v>32</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="34" t="s">
+      <c r="D34" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="34">
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="29">
         <v>20</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8590,28 +8623,28 @@
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="33" t="s">
         <v>928</v>
       </c>
-      <c r="D131" s="39">
-        <v>-1</v>
-      </c>
-      <c r="E131" s="39">
-        <v>1</v>
-      </c>
-      <c r="F131" s="40" t="s">
+      <c r="D131" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="34">
+        <v>1</v>
+      </c>
+      <c r="F131" s="35" t="s">
         <v>919</v>
       </c>
-      <c r="G131" s="39">
+      <c r="G131" s="34">
         <v>0</v>
       </c>
-      <c r="H131" s="39">
-        <v>1</v>
-      </c>
-      <c r="I131" s="40" t="s">
-        <v>955</v>
-      </c>
-      <c r="J131" s="40" t="s">
+      <c r="H131" s="34">
+        <v>1</v>
+      </c>
+      <c r="I131" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J131" s="35" t="s">
         <v>941</v>
       </c>
     </row>
@@ -9605,178 +9638,178 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="34">
+    <row r="162" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="29">
         <v>161</v>
       </c>
-      <c r="B162" s="34">
+      <c r="B162" s="29">
         <v>161</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="D162" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="34">
-        <v>1</v>
-      </c>
-      <c r="F162" s="36" t="s">
+      <c r="D162" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="29">
+        <v>1</v>
+      </c>
+      <c r="F162" s="31" t="s">
         <v>569</v>
       </c>
-      <c r="G162" s="34">
-        <v>1</v>
-      </c>
-      <c r="H162" s="34">
+      <c r="G162" s="29">
+        <v>1</v>
+      </c>
+      <c r="H162" s="29">
         <v>34</v>
       </c>
-      <c r="I162" s="36" t="s">
+      <c r="I162" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="J162" s="36" t="s">
+      <c r="J162" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="N162" s="34">
+      <c r="N162" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="34">
+    <row r="163" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="29">
         <v>162</v>
       </c>
-      <c r="B163" s="34">
+      <c r="B163" s="29">
         <v>162</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="D163" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="34">
-        <v>1</v>
-      </c>
-      <c r="F163" s="36" t="s">
+      <c r="D163" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="29">
+        <v>1</v>
+      </c>
+      <c r="F163" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="G163" s="34">
-        <v>1</v>
-      </c>
-      <c r="H163" s="34">
+      <c r="G163" s="29">
+        <v>1</v>
+      </c>
+      <c r="H163" s="29">
         <v>34</v>
       </c>
-      <c r="I163" s="36" t="s">
+      <c r="I163" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="J163" s="36" t="s">
+      <c r="J163" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="N163" s="34">
+      <c r="N163" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="34">
+    <row r="164" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="29">
         <v>163</v>
       </c>
-      <c r="B164" s="34">
+      <c r="B164" s="29">
         <v>163</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="D164" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="34">
-        <v>1</v>
-      </c>
-      <c r="F164" s="36" t="s">
+      <c r="D164" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="29">
+        <v>1</v>
+      </c>
+      <c r="F164" s="31" t="s">
         <v>571</v>
       </c>
-      <c r="G164" s="34">
-        <v>1</v>
-      </c>
-      <c r="H164" s="34">
+      <c r="G164" s="29">
+        <v>1</v>
+      </c>
+      <c r="H164" s="29">
         <v>34</v>
       </c>
-      <c r="I164" s="36" t="s">
+      <c r="I164" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="J164" s="36" t="s">
+      <c r="J164" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="N164" s="34">
+      <c r="N164" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
+    <row r="165" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="29">
         <v>164</v>
       </c>
-      <c r="B165" s="34">
+      <c r="B165" s="29">
         <v>164</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="C165" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="D165" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="34">
-        <v>1</v>
-      </c>
-      <c r="F165" s="36" t="s">
+      <c r="D165" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="29">
+        <v>1</v>
+      </c>
+      <c r="F165" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="G165" s="34">
-        <v>1</v>
-      </c>
-      <c r="H165" s="34">
+      <c r="G165" s="29">
+        <v>1</v>
+      </c>
+      <c r="H165" s="29">
         <v>34</v>
       </c>
-      <c r="I165" s="36" t="s">
+      <c r="I165" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="J165" s="36" t="s">
+      <c r="J165" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="N165" s="34">
+      <c r="N165" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
+    <row r="166" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="29">
         <v>165</v>
       </c>
-      <c r="B166" s="34">
+      <c r="B166" s="29">
         <v>165</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="D166" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="34">
-        <v>1</v>
-      </c>
-      <c r="F166" s="36" t="s">
+      <c r="D166" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="29">
+        <v>1</v>
+      </c>
+      <c r="F166" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="G166" s="34">
-        <v>1</v>
-      </c>
-      <c r="H166" s="34">
+      <c r="G166" s="29">
+        <v>1</v>
+      </c>
+      <c r="H166" s="29">
         <v>34</v>
       </c>
-      <c r="I166" s="36" t="s">
+      <c r="I166" s="31" t="s">
         <v>614</v>
       </c>
-      <c r="J166" s="36" t="s">
+      <c r="J166" s="31" t="s">
         <v>614</v>
       </c>
-      <c r="N166" s="34">
+      <c r="N166" s="29">
         <v>9</v>
       </c>
     </row>
@@ -13904,227 +13937,227 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="27">
+    <row r="285" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="11">
         <v>284</v>
       </c>
-      <c r="B285" s="27">
+      <c r="B285" s="11">
         <v>284</v>
       </c>
-      <c r="C285" s="30" t="s">
+      <c r="C285" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D285" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="30" t="s">
+      <c r="D285" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="11">
+        <v>1</v>
+      </c>
+      <c r="F285" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="G285" s="29">
+      <c r="G285" s="11">
         <v>0</v>
       </c>
-      <c r="H285" s="29">
+      <c r="H285" s="11">
         <v>33</v>
       </c>
-      <c r="I285" s="30" t="s">
+      <c r="I285" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="J285" s="30" t="s">
+      <c r="J285" s="12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="27">
+    <row r="286" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="11">
         <v>285</v>
       </c>
-      <c r="B286" s="27">
+      <c r="B286" s="11">
         <v>285</v>
       </c>
-      <c r="C286" s="30" t="s">
+      <c r="C286" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="D286" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E286" s="29">
-        <v>1</v>
-      </c>
-      <c r="F286" s="29" t="s">
+      <c r="D286" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E286" s="11">
+        <v>1</v>
+      </c>
+      <c r="F286" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="G286" s="29">
+      <c r="G286" s="11">
         <v>0</v>
       </c>
-      <c r="H286" s="29">
+      <c r="H286" s="11">
         <v>33</v>
       </c>
-      <c r="I286" s="29" t="s">
+      <c r="I286" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="J286" s="29" t="s">
+      <c r="J286" s="11" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="31">
+    <row r="287" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="11">
         <v>286</v>
       </c>
-      <c r="B287" s="31">
+      <c r="B287" s="11">
         <v>286</v>
       </c>
-      <c r="C287" s="32" t="s">
+      <c r="C287" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="D287" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="31">
-        <v>1</v>
-      </c>
-      <c r="F287" s="31" t="s">
+      <c r="D287" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="11">
+        <v>1</v>
+      </c>
+      <c r="F287" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="G287" s="31">
+      <c r="G287" s="11">
         <v>0</v>
       </c>
-      <c r="H287" s="31">
+      <c r="H287" s="11">
         <v>33</v>
       </c>
-      <c r="I287" s="31" t="s">
+      <c r="I287" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="J287" s="31" t="s">
+      <c r="J287" s="11" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="11">
         <v>287</v>
       </c>
       <c r="B288" s="11">
         <v>287</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="D288" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E288" s="13">
-        <v>1</v>
-      </c>
-      <c r="F288" s="33" t="s">
+      <c r="D288" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="11">
+        <v>1</v>
+      </c>
+      <c r="F288" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="G288" s="13">
+      <c r="G288" s="11">
         <v>0</v>
       </c>
-      <c r="H288" s="13">
+      <c r="H288" s="11">
         <v>33</v>
       </c>
-      <c r="I288" s="33" t="s">
+      <c r="I288" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J288" s="33" t="s">
+      <c r="J288" s="12" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="11">
         <v>288</v>
       </c>
       <c r="B289" s="11">
         <v>288</v>
       </c>
-      <c r="C289" s="33" t="s">
+      <c r="C289" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="D289" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E289" s="13">
-        <v>1</v>
-      </c>
-      <c r="F289" s="33" t="s">
+      <c r="D289" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="11">
+        <v>1</v>
+      </c>
+      <c r="F289" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="G289" s="13">
+      <c r="G289" s="11">
         <v>0</v>
       </c>
-      <c r="H289" s="13">
+      <c r="H289" s="11">
         <v>33</v>
       </c>
-      <c r="I289" s="33" t="s">
+      <c r="I289" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="J289" s="33" t="s">
+      <c r="J289" s="12" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="11">
         <v>289</v>
       </c>
       <c r="B290" s="11">
         <v>289</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="C290" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="D290" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E290" s="13">
-        <v>1</v>
-      </c>
-      <c r="F290" s="33" t="s">
+      <c r="D290" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E290" s="11">
+        <v>1</v>
+      </c>
+      <c r="F290" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="G290" s="13">
+      <c r="G290" s="11">
         <v>0</v>
       </c>
-      <c r="H290" s="13">
+      <c r="H290" s="11">
         <v>33</v>
       </c>
-      <c r="I290" s="33" t="s">
+      <c r="I290" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="J290" s="33" t="s">
+      <c r="J290" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="34">
+    <row r="291" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="11">
         <v>290</v>
       </c>
-      <c r="B291" s="34">
+      <c r="B291" s="11">
         <v>290</v>
       </c>
-      <c r="C291" s="36" t="s">
+      <c r="C291" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="D291" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="36" t="s">
+      <c r="D291" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="11">
+        <v>1</v>
+      </c>
+      <c r="F291" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="G291" s="34">
+      <c r="G291" s="11">
         <v>0</v>
       </c>
-      <c r="H291" s="34">
+      <c r="H291" s="11">
         <v>33</v>
       </c>
-      <c r="I291" s="36" t="s">
+      <c r="I291" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="J291" s="36" t="s">
+      <c r="J291" s="12" t="s">
         <v>923</v>
       </c>
     </row>
@@ -14160,196 +14193,356 @@
         <v>937</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
+    <row r="293" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="11">
         <v>292</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="11">
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="D293" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E293" s="2">
-        <v>1</v>
-      </c>
-      <c r="F293" s="2" t="s">
+      <c r="D293" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E293" s="11">
+        <v>1</v>
+      </c>
+      <c r="F293" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="G293" s="2">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2">
+      <c r="G293" s="11">
+        <v>1</v>
+      </c>
+      <c r="H293" s="11">
         <v>33</v>
       </c>
-      <c r="I293" s="5" t="s">
+      <c r="I293" s="12" t="s">
         <v>935</v>
       </c>
       <c r="J293" s="12" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
+    <row r="294" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="11">
         <v>293</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="11">
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D294" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E294" s="2">
-        <v>1</v>
-      </c>
-      <c r="F294" s="2" t="s">
+      <c r="D294" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E294" s="11">
+        <v>1</v>
+      </c>
+      <c r="F294" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="G294" s="2">
-        <v>1</v>
-      </c>
-      <c r="H294" s="2">
+      <c r="G294" s="11">
+        <v>1</v>
+      </c>
+      <c r="H294" s="11">
         <v>33</v>
       </c>
-      <c r="I294" s="5" t="s">
+      <c r="I294" s="12" t="s">
         <v>936</v>
       </c>
       <c r="J294" s="12" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
+    <row r="295" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="11">
         <v>294</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="11">
         <v>294</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="D295" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E295" s="13">
-        <v>1</v>
-      </c>
-      <c r="F295" s="13" t="s">
+      <c r="D295" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E295" s="11">
+        <v>1</v>
+      </c>
+      <c r="F295" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="G295" s="13">
-        <v>1</v>
-      </c>
-      <c r="H295" s="13">
+      <c r="G295" s="11">
+        <v>1</v>
+      </c>
+      <c r="H295" s="11">
         <v>33</v>
       </c>
-      <c r="I295" s="33" t="s">
+      <c r="I295" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="J295" s="33" t="s">
+      <c r="J295" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
+    <row r="296" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="11">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="11">
         <v>295</v>
       </c>
-      <c r="C296" s="33" t="s">
+      <c r="C296" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="D296" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E296" s="13">
-        <v>1</v>
-      </c>
-      <c r="F296" s="13" t="s">
+      <c r="D296" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E296" s="11">
+        <v>1</v>
+      </c>
+      <c r="F296" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="G296" s="13">
-        <v>1</v>
-      </c>
-      <c r="H296" s="13">
+      <c r="G296" s="11">
+        <v>1</v>
+      </c>
+      <c r="H296" s="11">
         <v>33</v>
       </c>
-      <c r="I296" s="33" t="s">
+      <c r="I296" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="J296" s="33" t="s">
+      <c r="J296" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
+    <row r="297" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="11">
         <v>296</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="11">
         <v>296</v>
       </c>
-      <c r="C297" s="33" t="s">
+      <c r="C297" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="D297" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E297" s="13">
-        <v>1</v>
-      </c>
-      <c r="F297" s="13" t="s">
+      <c r="D297" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E297" s="11">
+        <v>1</v>
+      </c>
+      <c r="F297" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="G297" s="13">
-        <v>1</v>
-      </c>
-      <c r="H297" s="13">
+      <c r="G297" s="11">
+        <v>1</v>
+      </c>
+      <c r="H297" s="11">
         <v>33</v>
       </c>
-      <c r="I297" s="33" t="s">
+      <c r="I297" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="J297" s="33" t="s">
+      <c r="J297" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
+    <row r="298" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="11">
         <v>297</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="11">
         <v>297</v>
       </c>
-      <c r="C298" s="33" t="s">
+      <c r="C298" s="12" t="s">
         <v>943</v>
       </c>
-      <c r="D298" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E298" s="13">
-        <v>1</v>
-      </c>
-      <c r="F298" s="13" t="s">
+      <c r="D298" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E298" s="11">
+        <v>1</v>
+      </c>
+      <c r="F298" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="G298" s="13">
-        <v>1</v>
-      </c>
-      <c r="H298" s="13">
+      <c r="G298" s="11">
+        <v>1</v>
+      </c>
+      <c r="H298" s="11">
         <v>33</v>
       </c>
-      <c r="I298" s="33" t="s">
+      <c r="I298" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="J298" s="33" t="s">
+      <c r="J298" s="12" t="s">
         <v>948</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="11">
+        <v>298</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="D299" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E299" s="34">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G299" s="34">
+        <v>0</v>
+      </c>
+      <c r="H299" s="34">
+        <v>1</v>
+      </c>
+      <c r="I299" s="35" t="s">
+        <v>961</v>
+      </c>
+      <c r="J299" s="35" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="11">
+        <v>299</v>
+      </c>
+      <c r="C300" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="D300" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E300" s="34">
+        <v>1</v>
+      </c>
+      <c r="F300" s="35" t="s">
+        <v>959</v>
+      </c>
+      <c r="G300" s="34">
+        <v>0</v>
+      </c>
+      <c r="H300" s="34">
+        <v>1</v>
+      </c>
+      <c r="I300" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J300" s="35" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="11">
+        <v>300</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="D301" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E301" s="34">
+        <v>1</v>
+      </c>
+      <c r="F301" s="35" t="s">
+        <v>960</v>
+      </c>
+      <c r="G301" s="34">
+        <v>0</v>
+      </c>
+      <c r="H301" s="34">
+        <v>1</v>
+      </c>
+      <c r="I301" s="35" t="s">
+        <v>962</v>
+      </c>
+      <c r="J301" s="35" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="11">
+        <v>301</v>
+      </c>
+      <c r="C302" s="35" t="s">
+        <v>969</v>
+      </c>
+      <c r="D302" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E302" s="34">
+        <v>1</v>
+      </c>
+      <c r="F302" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="G302" s="34">
+        <v>0</v>
+      </c>
+      <c r="H302" s="34">
+        <v>1</v>
+      </c>
+      <c r="I302" s="35" t="s">
+        <v>965</v>
+      </c>
+      <c r="J302" s="35" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="11">
+        <v>302</v>
+      </c>
+      <c r="C303" s="35" t="s">
+        <v>970</v>
+      </c>
+      <c r="D303" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="34">
+        <v>1</v>
+      </c>
+      <c r="F303" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="G303" s="34">
+        <v>0</v>
+      </c>
+      <c r="H303" s="34">
+        <v>1</v>
+      </c>
+      <c r="I303" s="35" t="s">
+        <v>967</v>
+      </c>
+      <c r="J303" s="35" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="983">
   <si>
     <t>id|行号</t>
   </si>
@@ -1574,10 +1574,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3751,6 +3747,18 @@
   </si>
   <si>
     <t>xnsmt_img_cjq</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4316,11 +4324,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q305"/>
+  <dimension ref="A1:Q306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4378,13 +4386,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>294</v>
@@ -4472,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -4498,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>365</v>
@@ -4550,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>366</v>
@@ -4576,13 +4584,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>367</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -5300,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G33" s="29">
         <v>1</v>
@@ -5623,7 +5631,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -5800,7 +5808,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -5834,7 +5842,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -6006,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6044,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6082,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6627,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6659,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6697,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6821,7 +6829,7 @@
         <v>276</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>329</v>
@@ -6909,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6918,10 +6926,10 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -6954,7 +6962,7 @@
         <v>287</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>295</v>
@@ -6992,7 +7000,7 @@
         <v>290</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>296</v>
@@ -7382,7 +7390,7 @@
         <v>326</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>330</v>
@@ -7469,7 +7477,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -7513,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -7522,7 +7530,7 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>355</v>
@@ -7548,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -7557,7 +7565,7 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>356</v>
@@ -7583,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -7592,7 +7600,7 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>357</v>
@@ -7618,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -7627,7 +7635,7 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>358</v>
@@ -7653,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -7662,7 +7670,7 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>359</v>
@@ -7679,7 +7687,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -7688,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -7697,7 +7705,7 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>360</v>
@@ -7714,7 +7722,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -7723,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -7732,10 +7740,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -7758,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -7767,7 +7775,7 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>362</v>
@@ -7793,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -7802,7 +7810,7 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>361</v>
@@ -7819,7 +7827,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -7837,7 +7845,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>172</v>
@@ -7856,7 +7864,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -7874,7 +7882,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>176</v>
@@ -7925,7 +7933,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>372</v>
+        <v>982</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -7934,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -7943,10 +7951,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -7958,28 +7966,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>173</v>
@@ -7996,28 +8004,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>173</v>
@@ -8034,28 +8042,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>173</v>
@@ -8072,28 +8080,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>173</v>
@@ -8110,28 +8118,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>173</v>
@@ -8148,28 +8156,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>173</v>
@@ -8186,16 +8194,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -8204,10 +8212,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -8220,16 +8228,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -8238,10 +8246,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8252,16 +8260,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -8270,10 +8278,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8284,16 +8292,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -8302,10 +8310,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8316,16 +8324,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -8334,10 +8342,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8348,16 +8356,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -8366,10 +8374,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -8380,7 +8388,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -8389,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -8398,10 +8406,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -8415,7 +8423,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -8424,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -8433,10 +8441,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -8450,7 +8458,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -8459,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -8468,10 +8476,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -8485,7 +8493,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -8494,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -8503,10 +8511,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -8520,7 +8528,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -8529,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -8538,10 +8546,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8555,7 +8563,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8564,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8573,10 +8581,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8590,7 +8598,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8599,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8608,10 +8616,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -8625,7 +8633,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -8634,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -8643,10 +8651,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -8660,7 +8668,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D131" s="34">
         <v>-1</v>
@@ -8669,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G131" s="34">
         <v>0</v>
@@ -8678,10 +8686,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J131" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8692,7 +8700,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D132" s="11">
         <v>-1</v>
@@ -8701,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G132" s="11">
         <v>0</v>
@@ -8710,10 +8718,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J132" s="12" t="s">
         <v>467</v>
-      </c>
-      <c r="J132" s="12" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -8724,7 +8732,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D133" s="11">
         <v>-1</v>
@@ -8733,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G133" s="11">
         <v>0</v>
@@ -8742,10 +8750,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -8756,7 +8764,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D134" s="11">
         <v>-1</v>
@@ -8765,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G134" s="11">
         <v>0</v>
@@ -8774,10 +8782,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8788,7 +8796,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D135" s="11">
         <v>-1</v>
@@ -8797,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G135" s="11">
         <v>0</v>
@@ -8806,10 +8814,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -8820,7 +8828,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D136" s="11">
         <v>-1</v>
@@ -8829,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G136" s="11">
         <v>0</v>
@@ -8838,10 +8846,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -8852,7 +8860,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D137" s="11">
         <v>-1</v>
@@ -8861,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G137" s="11">
         <v>0</v>
@@ -8870,10 +8878,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8884,7 +8892,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -8893,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -8902,10 +8910,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8916,7 +8924,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -8925,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -8934,10 +8942,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8948,7 +8956,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -8966,10 +8974,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8980,7 +8988,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -8989,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -8998,10 +9006,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -9012,7 +9020,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -9021,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -9030,10 +9038,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -9044,7 +9052,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -9053,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -9062,10 +9070,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -9076,16 +9084,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="D144" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -9094,10 +9102,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -9108,7 +9116,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -9117,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -9126,10 +9134,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9140,7 +9148,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -9149,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -9158,10 +9166,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9172,7 +9180,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -9181,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -9190,10 +9198,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9204,7 +9212,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -9213,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -9222,10 +9230,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9236,7 +9244,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -9245,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -9254,10 +9262,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9268,7 +9276,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -9277,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -9286,10 +9294,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9300,16 +9308,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>528</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>529</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -9318,10 +9326,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9332,7 +9340,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -9341,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -9350,10 +9358,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9364,7 +9372,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -9373,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -9382,10 +9390,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9396,7 +9404,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -9405,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -9414,10 +9422,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -9428,16 +9436,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>544</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -9446,10 +9454,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9460,7 +9468,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -9469,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -9478,10 +9486,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -9492,7 +9500,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -9501,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -9510,13 +9518,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -9530,7 +9538,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -9539,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9548,13 +9556,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9568,7 +9576,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9577,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9586,13 +9594,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9606,7 +9614,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9615,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -9624,13 +9632,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -9644,7 +9652,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -9653,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -9662,13 +9670,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
@@ -9682,7 +9690,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D162" s="29">
         <v>-1</v>
@@ -9691,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G162" s="29">
         <v>1</v>
@@ -9700,10 +9708,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J162" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N162" s="29">
         <v>9</v>
@@ -9717,7 +9725,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D163" s="29">
         <v>-1</v>
@@ -9726,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G163" s="29">
         <v>1</v>
@@ -9735,10 +9743,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J163" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N163" s="29">
         <v>9</v>
@@ -9752,7 +9760,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D164" s="29">
         <v>-1</v>
@@ -9761,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G164" s="29">
         <v>1</v>
@@ -9770,10 +9778,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J164" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N164" s="29">
         <v>9</v>
@@ -9787,7 +9795,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D165" s="29">
         <v>-1</v>
@@ -9796,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G165" s="29">
         <v>1</v>
@@ -9805,10 +9813,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J165" s="31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N165" s="29">
         <v>9</v>
@@ -9822,7 +9830,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D166" s="29">
         <v>-1</v>
@@ -9831,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G166" s="29">
         <v>1</v>
@@ -9840,10 +9848,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J166" s="31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N166" s="29">
         <v>9</v>
@@ -9857,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -9866,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -9875,10 +9883,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -9892,7 +9900,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -9901,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -9910,10 +9918,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -9927,7 +9935,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -9936,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -9945,10 +9953,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -9962,7 +9970,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -9971,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -9980,10 +9988,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -9997,7 +10005,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -10006,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -10015,10 +10023,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -10032,7 +10040,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -10041,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -10050,10 +10058,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10064,16 +10072,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>583</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -10082,10 +10090,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>584</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10096,16 +10104,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>587</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -10114,10 +10122,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10128,16 +10136,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -10146,10 +10154,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10160,16 +10168,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -10178,10 +10186,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -10192,16 +10200,16 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="D177" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="25">
-        <v>1</v>
-      </c>
-      <c r="F177" s="25" t="s">
-        <v>620</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -10210,10 +10218,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>621</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10224,7 +10232,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -10233,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -10242,10 +10250,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -10261,7 +10269,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -10270,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -10279,10 +10287,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10298,7 +10306,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -10307,7 +10315,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -10316,10 +10324,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -10335,7 +10343,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -10344,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -10353,10 +10361,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -10367,16 +10375,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="F182" s="23" t="s">
         <v>648</v>
-      </c>
-      <c r="D182" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="23">
-        <v>1</v>
-      </c>
-      <c r="F182" s="23" t="s">
-        <v>649</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10385,13 +10393,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10405,7 +10413,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -10414,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10423,13 +10431,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10443,7 +10451,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10452,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10461,13 +10469,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -10481,7 +10489,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10490,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10499,10 +10507,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>662</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -10516,7 +10524,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10525,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10534,10 +10542,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>663</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>664</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10551,7 +10559,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10560,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10569,10 +10577,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10586,7 +10594,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10595,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10604,10 +10612,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10621,7 +10629,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10630,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10639,10 +10647,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10656,7 +10664,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10665,7 +10673,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10674,10 +10682,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10691,7 +10699,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10700,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10709,10 +10717,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10726,7 +10734,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10735,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10744,10 +10752,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10761,7 +10769,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10770,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10779,10 +10787,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10796,7 +10804,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10805,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10814,10 +10822,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10831,7 +10839,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10840,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10849,10 +10857,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10866,7 +10874,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10875,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10884,10 +10892,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10901,7 +10909,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10910,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10919,10 +10927,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10936,7 +10944,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10945,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10954,10 +10962,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10971,7 +10979,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10980,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10989,10 +10997,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -11006,7 +11014,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -11015,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -11024,10 +11032,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -11041,7 +11049,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -11050,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -11059,10 +11067,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -11076,7 +11084,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11085,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11094,10 +11102,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -11111,7 +11119,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11120,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11129,10 +11137,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -11146,7 +11154,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11155,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11164,10 +11172,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11181,7 +11189,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11190,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11199,10 +11207,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11216,7 +11224,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11225,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11234,10 +11242,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11251,7 +11259,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11260,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11269,10 +11277,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11286,7 +11294,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11295,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11304,10 +11312,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11321,7 +11329,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11330,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11339,10 +11347,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11356,7 +11364,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11365,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11374,10 +11382,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11391,7 +11399,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11400,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11409,10 +11417,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11426,7 +11434,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11435,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11444,10 +11452,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11461,7 +11469,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11470,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11479,10 +11487,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11496,7 +11504,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11505,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11514,10 +11522,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11531,7 +11539,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11540,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11549,10 +11557,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11566,7 +11574,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11575,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11584,10 +11592,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11601,7 +11609,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11610,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11619,10 +11627,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11636,7 +11644,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11645,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11654,10 +11662,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11671,7 +11679,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11680,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11689,10 +11697,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11706,7 +11714,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11715,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11724,10 +11732,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11741,7 +11749,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11750,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11759,10 +11767,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11776,7 +11784,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11785,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11794,10 +11802,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11811,7 +11819,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11820,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11829,10 +11837,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11846,7 +11854,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11855,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11864,10 +11872,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11881,7 +11889,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11890,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11899,10 +11907,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11916,7 +11924,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11925,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11934,10 +11942,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11951,7 +11959,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11960,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11969,10 +11977,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11986,7 +11994,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11995,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -12004,10 +12012,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -12021,7 +12029,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -12030,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -12039,10 +12047,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -12056,7 +12064,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -12065,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -12074,10 +12082,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -12091,7 +12099,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -12100,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -12109,10 +12117,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -12126,7 +12134,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -12135,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -12144,10 +12152,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -12161,7 +12169,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -12170,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12179,10 +12187,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -12196,7 +12204,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12205,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12214,10 +12222,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12231,7 +12239,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12240,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12249,10 +12257,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12266,7 +12274,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12275,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12284,10 +12292,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12301,7 +12309,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12310,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12319,10 +12327,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12336,7 +12344,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12345,7 +12353,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12354,10 +12362,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12371,7 +12379,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12380,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12389,10 +12397,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12406,7 +12414,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12415,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12424,10 +12432,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12441,7 +12449,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12450,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12459,10 +12467,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12476,7 +12484,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12485,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12494,10 +12502,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12511,7 +12519,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12520,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12529,10 +12537,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12546,7 +12554,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12555,7 +12563,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12564,10 +12572,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12581,7 +12589,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12590,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12599,10 +12607,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12616,7 +12624,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12625,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12634,10 +12642,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12651,7 +12659,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12660,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12669,10 +12677,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12686,7 +12694,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12695,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12704,10 +12712,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12721,7 +12729,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12730,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12739,10 +12747,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12756,7 +12764,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12765,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12774,10 +12782,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12791,7 +12799,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12800,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12809,10 +12817,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12826,7 +12834,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12835,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12844,10 +12852,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12861,7 +12869,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12870,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12879,10 +12887,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12896,7 +12904,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12905,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12914,10 +12922,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12931,7 +12939,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12940,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12949,10 +12957,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12966,7 +12974,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12975,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12984,10 +12992,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -13001,7 +13009,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -13010,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -13019,10 +13027,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -13036,7 +13044,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -13045,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -13054,10 +13062,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -13071,7 +13079,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -13080,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -13089,10 +13097,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -13106,7 +13114,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -13115,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -13124,10 +13132,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -13141,7 +13149,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -13150,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -13159,10 +13167,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -13176,7 +13184,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13185,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13194,10 +13202,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -13211,7 +13219,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13220,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13229,10 +13237,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13246,7 +13254,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13255,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13264,10 +13272,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13281,7 +13289,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13290,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13299,10 +13307,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13316,7 +13324,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13325,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13334,10 +13342,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13351,7 +13359,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13360,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13369,10 +13377,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13386,7 +13394,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13395,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13404,10 +13412,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13421,7 +13429,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13430,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13439,10 +13447,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13456,7 +13464,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13465,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13474,10 +13482,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13491,7 +13499,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13500,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13509,10 +13517,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13526,7 +13534,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13535,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13544,10 +13552,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13561,7 +13569,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13570,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13579,10 +13587,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13596,7 +13604,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13605,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13614,10 +13622,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13631,7 +13639,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13640,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13649,10 +13657,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13666,7 +13674,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13675,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13684,10 +13692,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13701,7 +13709,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13710,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13719,10 +13727,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13736,7 +13744,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13745,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13754,10 +13762,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13771,7 +13779,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13780,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13789,10 +13797,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13806,7 +13814,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13815,7 +13823,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13824,10 +13832,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13841,7 +13849,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13850,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13859,10 +13867,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13876,7 +13884,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13885,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13894,10 +13902,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13911,7 +13919,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13920,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13929,10 +13937,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13946,7 +13954,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13955,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13964,10 +13972,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13981,16 +13989,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D285" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="11">
+        <v>1</v>
+      </c>
+      <c r="F285" s="12" t="s">
         <v>763</v>
-      </c>
-      <c r="D285" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="11">
-        <v>1</v>
-      </c>
-      <c r="F285" s="12" t="s">
-        <v>764</v>
       </c>
       <c r="G285" s="11">
         <v>0</v>
@@ -13999,10 +14007,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14013,7 +14021,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D286" s="11">
         <v>-1</v>
@@ -14022,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G286" s="11">
         <v>0</v>
@@ -14031,10 +14039,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="J286" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="J286" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14045,16 +14053,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="D287" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="11">
+        <v>1</v>
+      </c>
+      <c r="F287" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="D287" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="11">
-        <v>1</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>810</v>
       </c>
       <c r="G287" s="11">
         <v>0</v>
@@ -14063,10 +14071,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="J287" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="J287" s="11" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14077,7 +14085,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D288" s="11">
         <v>-1</v>
@@ -14086,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G288" s="11">
         <v>0</v>
@@ -14095,10 +14103,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="J288" s="12" t="s">
         <v>814</v>
-      </c>
-      <c r="J288" s="12" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14109,7 +14117,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D289" s="11">
         <v>-1</v>
@@ -14118,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G289" s="11">
         <v>0</v>
@@ -14127,10 +14135,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="J289" s="12" t="s">
         <v>820</v>
-      </c>
-      <c r="J289" s="12" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14141,7 +14149,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D290" s="11">
         <v>-1</v>
@@ -14150,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G290" s="11">
         <v>0</v>
@@ -14159,10 +14167,10 @@
         <v>33</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J290" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="291" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14173,16 +14181,16 @@
         <v>290</v>
       </c>
       <c r="C291" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D291" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="11">
+        <v>1</v>
+      </c>
+      <c r="F291" s="12" t="s">
         <v>924</v>
-      </c>
-      <c r="D291" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="11">
-        <v>1</v>
-      </c>
-      <c r="F291" s="12" t="s">
-        <v>925</v>
       </c>
       <c r="G291" s="11">
         <v>0</v>
@@ -14191,10 +14199,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="J291" s="12" t="s">
         <v>922</v>
-      </c>
-      <c r="J291" s="12" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14205,7 +14213,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14214,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14223,10 +14231,10 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="293" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14237,7 +14245,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D293" s="11">
         <v>-1</v>
@@ -14246,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G293" s="11">
         <v>1</v>
@@ -14255,10 +14263,10 @@
         <v>33</v>
       </c>
       <c r="I293" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J293" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="294" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14269,7 +14277,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D294" s="11">
         <v>-1</v>
@@ -14278,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G294" s="11">
         <v>1</v>
@@ -14287,10 +14295,10 @@
         <v>33</v>
       </c>
       <c r="I294" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="J294" s="12" t="s">
         <v>936</v>
-      </c>
-      <c r="J294" s="12" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14301,7 +14309,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D295" s="11">
         <v>-1</v>
@@ -14310,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G295" s="11">
         <v>1</v>
@@ -14319,10 +14327,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J295" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="296" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14333,7 +14341,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D296" s="11">
         <v>-1</v>
@@ -14342,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G296" s="11">
         <v>1</v>
@@ -14351,10 +14359,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J296" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="297" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14365,7 +14373,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D297" s="11">
         <v>-1</v>
@@ -14374,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G297" s="11">
         <v>1</v>
@@ -14383,10 +14391,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J297" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="298" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14397,7 +14405,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D298" s="11">
         <v>-1</v>
@@ -14406,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G298" s="11">
         <v>1</v>
@@ -14415,10 +14423,10 @@
         <v>33</v>
       </c>
       <c r="I298" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J298" s="12" t="s">
         <v>947</v>
-      </c>
-      <c r="J298" s="12" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14429,7 +14437,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D299" s="34">
         <v>-1</v>
@@ -14438,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G299" s="34">
         <v>0</v>
@@ -14450,7 +14458,7 @@
         <v>308</v>
       </c>
       <c r="J299" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14461,7 +14469,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D300" s="34">
         <v>-1</v>
@@ -14470,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G300" s="34">
         <v>0</v>
@@ -14482,7 +14490,7 @@
         <v>312</v>
       </c>
       <c r="J300" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14493,7 +14501,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D301" s="34">
         <v>-1</v>
@@ -14502,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G301" s="34">
         <v>0</v>
@@ -14511,10 +14519,10 @@
         <v>1</v>
       </c>
       <c r="I301" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J301" s="35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14525,7 +14533,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="33" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D302" s="34">
         <v>-1</v>
@@ -14534,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G302" s="34">
         <v>0</v>
@@ -14543,10 +14551,10 @@
         <v>1</v>
       </c>
       <c r="I302" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J302" s="35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14557,16 +14565,16 @@
         <v>302</v>
       </c>
       <c r="C303" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="D303" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="34">
+        <v>1</v>
+      </c>
+      <c r="F303" s="36" t="s">
         <v>968</v>
-      </c>
-      <c r="D303" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E303" s="34">
-        <v>1</v>
-      </c>
-      <c r="F303" s="36" t="s">
-        <v>969</v>
       </c>
       <c r="G303" s="34">
         <v>0</v>
@@ -14575,10 +14583,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="35" t="s">
+        <v>965</v>
+      </c>
+      <c r="J303" s="35" t="s">
         <v>966</v>
-      </c>
-      <c r="J303" s="35" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14589,7 +14597,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="33" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D304" s="34">
         <v>-1</v>
@@ -14598,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G304" s="34">
         <v>0</v>
@@ -14607,19 +14615,22 @@
         <v>1</v>
       </c>
       <c r="I304" s="35" t="s">
+        <v>970</v>
+      </c>
+      <c r="J304" s="35" t="s">
         <v>971</v>
       </c>
-      <c r="J304" s="35" t="s">
+    </row>
+    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="11">
+        <v>304</v>
+      </c>
+      <c r="B305" s="11">
+        <v>304</v>
+      </c>
+      <c r="C305" s="33" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="305" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B305" s="2">
-        <v>304</v>
-      </c>
-      <c r="C305" s="33" t="s">
-        <v>973</v>
-      </c>
       <c r="D305" s="34">
         <v>-1</v>
       </c>
@@ -14627,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G305" s="34">
         <v>0</v>
@@ -14636,10 +14647,42 @@
         <v>1</v>
       </c>
       <c r="I305" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J305" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="11">
+        <v>305</v>
+      </c>
+      <c r="B306" s="11">
+        <v>305</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="D306" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E306" s="34">
+        <v>1</v>
+      </c>
+      <c r="F306" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="G306" s="34">
+        <v>0</v>
+      </c>
+      <c r="H306" s="34">
+        <v>1</v>
+      </c>
+      <c r="I306" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="J306" s="35" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="970">
   <si>
     <t>id|行号</t>
   </si>
@@ -3656,31 +3656,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
+    <t>福袋--深海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--福袋（深海探险产出）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_xnfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3688,36 +3696,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_gdn_xnfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋--正常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gdn_xnfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋--深海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--福袋（深海探险产出）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xnfd_0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xnfd_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>过大年--新字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--年字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--快字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--乐字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
   </si>
 </sst>
 </file>
@@ -4282,9 +4277,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8642,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>308</v>
+        <v>957</v>
       </c>
       <c r="J131" s="35" t="s">
         <v>941</v>
@@ -14393,7 +14388,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="33" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D299" s="34">
         <v>-1</v>
@@ -14401,9 +14396,7 @@
       <c r="E299" s="34">
         <v>1</v>
       </c>
-      <c r="F299" s="35" t="s">
-        <v>958</v>
-      </c>
+      <c r="F299" s="35"/>
       <c r="G299" s="34">
         <v>0</v>
       </c>
@@ -14411,10 +14404,10 @@
         <v>1</v>
       </c>
       <c r="I299" s="35" t="s">
-        <v>961</v>
+        <v>308</v>
       </c>
       <c r="J299" s="35" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14425,7 +14418,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D300" s="34">
         <v>-1</v>
@@ -14433,9 +14426,7 @@
       <c r="E300" s="34">
         <v>1</v>
       </c>
-      <c r="F300" s="35" t="s">
-        <v>959</v>
-      </c>
+      <c r="F300" s="35"/>
       <c r="G300" s="34">
         <v>0</v>
       </c>
@@ -14443,10 +14434,10 @@
         <v>1</v>
       </c>
       <c r="I300" s="35" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J300" s="35" t="s">
-        <v>941</v>
+        <v>966</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14457,7 +14448,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="33" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D301" s="34">
         <v>-1</v>
@@ -14465,9 +14456,7 @@
       <c r="E301" s="34">
         <v>1</v>
       </c>
-      <c r="F301" s="35" t="s">
-        <v>960</v>
-      </c>
+      <c r="F301" s="35"/>
       <c r="G301" s="34">
         <v>0</v>
       </c>
@@ -14475,21 +14464,21 @@
         <v>1</v>
       </c>
       <c r="I301" s="35" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J301" s="35" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
       <c r="B302" s="11">
         <v>301</v>
       </c>
-      <c r="C302" s="35" t="s">
-        <v>969</v>
+      <c r="C302" s="33" t="s">
+        <v>961</v>
       </c>
       <c r="D302" s="34">
         <v>-1</v>
@@ -14497,9 +14486,7 @@
       <c r="E302" s="34">
         <v>1</v>
       </c>
-      <c r="F302" s="35" t="s">
-        <v>963</v>
-      </c>
+      <c r="F302" s="35"/>
       <c r="G302" s="34">
         <v>0</v>
       </c>
@@ -14507,10 +14494,10 @@
         <v>1</v>
       </c>
       <c r="I302" s="35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J302" s="35" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -14521,7 +14508,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="35" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D303" s="34">
         <v>-1</v>
@@ -14530,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="35" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G303" s="34">
         <v>0</v>
@@ -14539,10 +14526,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="35" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="J303" s="35" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="973">
   <si>
     <t>id|行号</t>
   </si>
@@ -3713,6 +3713,18 @@
   </si>
   <si>
     <t>act_ty_by_drop_7</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--万能字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4275,11 +4287,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q303"/>
+  <dimension ref="A1:Q304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C303" sqref="C303"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14532,6 +14544,33 @@
         <v>956</v>
       </c>
     </row>
+    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B304" s="2">
+        <v>303</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>972</v>
+      </c>
+      <c r="D304" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E304" s="34">
+        <v>1</v>
+      </c>
+      <c r="F304" s="34"/>
+      <c r="G304" s="34">
+        <v>0</v>
+      </c>
+      <c r="H304" s="34">
+        <v>1</v>
+      </c>
+      <c r="I304" s="35" t="s">
+        <v>970</v>
+      </c>
+      <c r="J304" s="35" t="s">
+        <v>971</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -3726,7 +3726,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>hslb_icon_wnz</t>
+    <t>ty_lb1_wnz</t>
   </si>
 </sst>
 </file>
@@ -3902,7 +3902,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4009,6 +4009,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4291,9 +4294,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G297" sqref="G297"/>
+      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14395,7 +14398,7 @@
       </c>
     </row>
     <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="2">
+      <c r="A299" s="11">
         <v>298</v>
       </c>
       <c r="B299" s="11">
@@ -14427,7 +14430,7 @@
       </c>
     </row>
     <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
+      <c r="A300" s="11">
         <v>299</v>
       </c>
       <c r="B300" s="11">
@@ -14459,7 +14462,7 @@
       </c>
     </row>
     <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
+      <c r="A301" s="11">
         <v>300</v>
       </c>
       <c r="B301" s="11">
@@ -14491,7 +14494,7 @@
       </c>
     </row>
     <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
+      <c r="A302" s="11">
         <v>301</v>
       </c>
       <c r="B302" s="11">
@@ -14523,6 +14526,9 @@
       </c>
     </row>
     <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="11">
+        <v>302</v>
+      </c>
       <c r="B303" s="11">
         <v>302</v>
       </c>
@@ -14535,7 +14541,7 @@
       <c r="E303" s="34">
         <v>1</v>
       </c>
-      <c r="F303" s="34" t="s">
+      <c r="F303" s="36" t="s">
         <v>973</v>
       </c>
       <c r="G303" s="34">

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="979">
   <si>
     <t>id|行号</t>
   </si>
@@ -3727,6 +3727,26 @@
   </si>
   <si>
     <t>ty_lb1_wnz</t>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券--2.9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4292,11 +4312,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q303"/>
+  <dimension ref="A1:Q305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14557,6 +14577,67 @@
         <v>967</v>
       </c>
     </row>
+    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="11">
+        <v>303</v>
+      </c>
+      <c r="B304" s="11">
+        <v>303</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="D304" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E304" s="34">
+        <v>1</v>
+      </c>
+      <c r="F304" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="G304" s="34">
+        <v>0</v>
+      </c>
+      <c r="H304" s="34">
+        <v>1</v>
+      </c>
+      <c r="I304" s="35" t="s">
+        <v>975</v>
+      </c>
+      <c r="J304" s="35" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B305" s="2">
+        <v>304</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="D305" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E305" s="34">
+        <v>1</v>
+      </c>
+      <c r="F305" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="G305" s="34">
+        <v>0</v>
+      </c>
+      <c r="H305" s="34">
+        <v>1</v>
+      </c>
+      <c r="I305" s="35" t="s">
+        <v>978</v>
+      </c>
+      <c r="J305" s="35" t="s">
+        <v>978</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -3712,20 +3712,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>xnhl_icon_x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xnhl_icon_n</t>
-  </si>
-  <si>
-    <t>xnhl_icon_k</t>
-  </si>
-  <si>
-    <t>xnhl_icon_l</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_lb1_wnz</t>
   </si>
   <si>
@@ -3746,6 +3732,21 @@
   </si>
   <si>
     <t>茅台碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_001_universal_xnhl_icon_x</t>
+  </si>
+  <si>
+    <t>act_001_universal_xnhl_icon_n</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_001_universal_xnhl_icon_k</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_001_universal_xnhl_icon_l</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4315,8 +4316,8 @@
   <dimension ref="A1:Q305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14433,8 +14434,8 @@
       <c r="E299" s="34">
         <v>1</v>
       </c>
-      <c r="F299" s="35" t="s">
-        <v>969</v>
+      <c r="F299" s="36" t="s">
+        <v>975</v>
       </c>
       <c r="G299" s="34">
         <v>0</v>
@@ -14466,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="35" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="G300" s="34">
         <v>0</v>
@@ -14498,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="35" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="G301" s="34">
         <v>0</v>
@@ -14530,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="35" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="G302" s="34">
         <v>0</v>
@@ -14562,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="36" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G303" s="34">
         <v>0</v>
@@ -14585,7 +14586,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="33" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D304" s="34">
         <v>-1</v>
@@ -14594,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="36" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G304" s="34">
         <v>0</v>
@@ -14603,10 +14604,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="35" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J304" s="35" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="305" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -14614,7 +14615,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D305" s="34">
         <v>-1</v>
@@ -14623,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="36" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G305" s="34">
         <v>0</v>
@@ -14632,10 +14633,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="35" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="J305" s="35" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -3735,19 +3735,16 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_001_universal_xnhl_icon_x</t>
-  </si>
-  <si>
-    <t>act_001_universal_xnhl_icon_n</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_001_universal_xnhl_icon_k</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_001_universal_xnhl_icon_l</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>xnhl_icon_x</t>
+  </si>
+  <si>
+    <t>xnhl_icon_n</t>
+  </si>
+  <si>
+    <t>xnhl_icon_k</t>
+  </si>
+  <si>
+    <t>xnhl_icon_l</t>
   </si>
 </sst>
 </file>
@@ -4317,7 +4314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F304" sqref="F304"/>
+      <selection pane="bottomLeft" activeCell="I299" sqref="I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="981">
   <si>
     <t>id|行号</t>
   </si>
@@ -3745,6 +3745,12 @@
   </si>
   <si>
     <t>xnhl_icon_l</t>
+  </si>
+  <si>
+    <t>activity_icon_mtsp</t>
+  </si>
+  <si>
+    <t>xnsmt_img_cjq</t>
   </si>
 </sst>
 </file>
@@ -4313,8 +4319,8 @@
   <dimension ref="A1:Q305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I299" sqref="I299"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14592,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="36" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="G304" s="34">
         <v>0</v>
@@ -14621,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="36" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="G305" s="34">
         <v>0</v>

--- a/config_2.9/item_config.xlsx
+++ b/config_2.9/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="986">
   <si>
     <t>id|行号</t>
   </si>
@@ -3758,6 +3758,18 @@
   </si>
   <si>
     <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4324,11 +4336,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomLeft" activeCell="I314" sqref="I314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14685,6 +14697,38 @@
         <v>940</v>
       </c>
     </row>
+    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="11">
+        <v>306</v>
+      </c>
+      <c r="B307" s="11">
+        <v>306</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="D307" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="34">
+        <v>1</v>
+      </c>
+      <c r="F307" s="35" t="s">
+        <v>984</v>
+      </c>
+      <c r="G307" s="34">
+        <v>0</v>
+      </c>
+      <c r="H307" s="34">
+        <v>1</v>
+      </c>
+      <c r="I307" s="35" t="s">
+        <v>985</v>
+      </c>
+      <c r="J307" s="35" t="s">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
